--- a/data/genius_Alligatoah_In-gottes-namen.xlsx
+++ b/data/genius_Alligatoah_In-gottes-namen.xlsx
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>In Gottes Namen</t>
+          <t>In gottes namen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
